--- a/docss/trend/czechia/E_huntington.xlsx
+++ b/docss/trend/czechia/E_huntington.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Elena\Desktop\IC3-Design\docs\trend\czechia\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ELENA\Documents\IC3\ic3desarrollo\docss\trend\czechia\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -221,7 +221,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -239,7 +239,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1559,7 +1558,7 @@
   <dimension ref="A1:D17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G10" sqref="G10"/>
+      <selection activeCell="E1" sqref="E1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1582,125 +1581,125 @@
       <c r="A2">
         <v>1999</v>
       </c>
-      <c r="B2" s="7">
-        <v>0.10909402696415782</v>
-      </c>
-      <c r="C2" s="7">
-        <v>0.13429090939462185</v>
-      </c>
-      <c r="D2" s="7">
-        <v>9.0481719002127647E-2</v>
+      <c r="B2">
+        <v>0.109</v>
+      </c>
+      <c r="C2">
+        <v>0.13400000000000001</v>
+      </c>
+      <c r="D2">
+        <v>0.09</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>2000</v>
       </c>
-      <c r="B3" s="7">
-        <v>0.12205906445160508</v>
-      </c>
-      <c r="C3" s="7">
-        <v>7.5781583786010742E-2</v>
-      </c>
-      <c r="D3" s="7">
-        <v>0.17117802053689957</v>
+      <c r="B3">
+        <v>0.122</v>
+      </c>
+      <c r="C3">
+        <v>7.5999999999999998E-2</v>
+      </c>
+      <c r="D3">
+        <v>0.17100000000000001</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>2001</v>
       </c>
-      <c r="B4" s="7">
-        <v>0.13010846497491002</v>
-      </c>
-      <c r="C4" s="7">
-        <v>0.16610586829483509</v>
-      </c>
-      <c r="D4" s="7">
-        <v>0.10021455585956573</v>
+      <c r="B4">
+        <v>0.13</v>
+      </c>
+      <c r="C4">
+        <v>0.16600000000000001</v>
+      </c>
+      <c r="D4">
+        <v>0.1</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>2002</v>
       </c>
-      <c r="B5" s="7">
-        <v>0.12646872596815228</v>
-      </c>
-      <c r="C5" s="7">
-        <v>0.12676699459552765</v>
-      </c>
-      <c r="D5" s="7">
-        <v>0.12401391286402941</v>
+      <c r="B5">
+        <v>0.126</v>
+      </c>
+      <c r="C5">
+        <v>0.127</v>
+      </c>
+      <c r="D5">
+        <v>0.124</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>2003</v>
       </c>
-      <c r="B6" s="7">
-        <v>0.204348040279001</v>
-      </c>
-      <c r="C6" s="7">
-        <v>0.19012929406017065</v>
-      </c>
-      <c r="D6" s="7">
-        <v>0.20919919107109308</v>
+      <c r="B6">
+        <v>0.20399999999999999</v>
+      </c>
+      <c r="C6">
+        <v>0.19</v>
+      </c>
+      <c r="D6">
+        <v>0.20899999999999999</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>2004</v>
       </c>
-      <c r="B7" s="7">
-        <v>0.1442172359675169</v>
-      </c>
-      <c r="C7" s="7">
-        <v>8.8681932538747787E-2</v>
-      </c>
-      <c r="D7" s="7">
-        <v>0.19381522946059704</v>
+      <c r="B7">
+        <v>0.14399999999999999</v>
+      </c>
+      <c r="C7">
+        <v>8.8999999999999996E-2</v>
+      </c>
+      <c r="D7">
+        <v>0.19400000000000001</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>2005</v>
       </c>
-      <c r="B8" s="7">
-        <v>0.16244958015158772</v>
-      </c>
-      <c r="C8" s="7">
-        <v>0.14606279879808426</v>
-      </c>
-      <c r="D8" s="7">
-        <v>0.17701811529695988</v>
+      <c r="B8">
+        <v>0.16200000000000001</v>
+      </c>
+      <c r="C8">
+        <v>0.14599999999999999</v>
+      </c>
+      <c r="D8">
+        <v>0.17699999999999999</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>2006</v>
       </c>
-      <c r="B9" s="7">
-        <v>0.15542313177138567</v>
-      </c>
-      <c r="C9" s="7">
-        <v>0.14665784034878016</v>
-      </c>
-      <c r="D9" s="7">
-        <v>0.17675349954515696</v>
+      <c r="B9">
+        <v>0.155</v>
+      </c>
+      <c r="C9">
+        <v>0.14699999999999999</v>
+      </c>
+      <c r="D9">
+        <v>0.17699999999999999</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>2007</v>
       </c>
-      <c r="B10" s="7">
+      <c r="B10">
         <v>0</v>
       </c>
-      <c r="C10" s="7">
+      <c r="C10">
         <v>0</v>
       </c>
-      <c r="D10" s="7">
+      <c r="D10">
         <v>0</v>
       </c>
     </row>
@@ -1708,13 +1707,13 @@
       <c r="A11">
         <v>2008</v>
       </c>
-      <c r="B11" s="7">
+      <c r="B11">
         <v>0</v>
       </c>
-      <c r="C11" s="7">
+      <c r="C11">
         <v>0</v>
       </c>
-      <c r="D11" s="7">
+      <c r="D11">
         <v>0</v>
       </c>
     </row>
@@ -1722,13 +1721,13 @@
       <c r="A12">
         <v>2009</v>
       </c>
-      <c r="B12" s="7">
+      <c r="B12">
         <v>0</v>
       </c>
-      <c r="C12" s="7">
+      <c r="C12">
         <v>0</v>
       </c>
-      <c r="D12" s="7">
+      <c r="D12">
         <v>0</v>
       </c>
     </row>
@@ -1736,13 +1735,13 @@
       <c r="A13">
         <v>2010</v>
       </c>
-      <c r="B13" s="7">
-        <v>6.8265721201896667E-3</v>
-      </c>
-      <c r="C13" s="7">
-        <v>1.4418031089007854E-2</v>
-      </c>
-      <c r="D13" s="7">
+      <c r="B13">
+        <v>7.0000000000000001E-3</v>
+      </c>
+      <c r="C13">
+        <v>1.4E-2</v>
+      </c>
+      <c r="D13">
         <v>0</v>
       </c>
     </row>
@@ -1750,56 +1749,56 @@
       <c r="A14">
         <v>2011</v>
       </c>
-      <c r="B14" s="7">
-        <v>0.15889524249359965</v>
-      </c>
-      <c r="C14" s="7">
-        <v>0.11654899921268225</v>
-      </c>
-      <c r="D14" s="7">
-        <v>0.19909866899251938</v>
+      <c r="B14">
+        <v>0.159</v>
+      </c>
+      <c r="C14">
+        <v>0.11700000000000001</v>
+      </c>
+      <c r="D14">
+        <v>0.19900000000000001</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>2012</v>
       </c>
-      <c r="B15" s="7">
-        <v>0.20719730434939265</v>
-      </c>
-      <c r="C15" s="7">
-        <v>0.23005763906985521</v>
-      </c>
-      <c r="D15" s="7">
-        <v>0.19483204372227192</v>
+      <c r="B15">
+        <v>0.20699999999999999</v>
+      </c>
+      <c r="C15">
+        <v>0.23</v>
+      </c>
+      <c r="D15">
+        <v>0.19500000000000001</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>2013</v>
       </c>
-      <c r="B16" s="7">
-        <v>0.33414894528687</v>
-      </c>
-      <c r="C16" s="7">
-        <v>0.29836257174611092</v>
-      </c>
-      <c r="D16" s="7">
-        <v>0.36424085544422269</v>
+      <c r="B16">
+        <v>0.33400000000000002</v>
+      </c>
+      <c r="C16">
+        <v>0.29799999999999999</v>
+      </c>
+      <c r="D16">
+        <v>0.36399999999999999</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>2014</v>
       </c>
-      <c r="B17" s="7">
-        <v>0.2712085242383182</v>
-      </c>
-      <c r="C17" s="7">
-        <v>0.29512680694460869</v>
-      </c>
-      <c r="D17" s="7">
-        <v>0.24696129746735096</v>
+      <c r="B17">
+        <v>0.27100000000000002</v>
+      </c>
+      <c r="C17">
+        <v>0.29499999999999998</v>
+      </c>
+      <c r="D17">
+        <v>0.247</v>
       </c>
     </row>
   </sheetData>
